--- a/projects/validation - single vehicle motion/data/external/60-mph-steer-data.xlsx
+++ b/projects/validation - single vehicle motion/data/external/60-mph-steer-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\research\sae-2021\vehicle-dymanimcs-malibu\engineering\pc-crash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/260f1994eb51c2be/pycrash/projects/validation - single vehicle motion/data/external/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F88F6B-5150-4630-8B37-63609C6320E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{36F88F6B-5150-4630-8B37-63609C6320E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E295BDA0-2BF7-4FBF-B7AB-C999F04FEBAC}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -480,22 +480,22 @@
   <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
@@ -526,7 +526,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -594,7 +594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.3</v>
       </c>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.4</v>
       </c>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.5</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.6</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.7</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.8</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.9</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.1000000000000001</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.2</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.3</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.4</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.5</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.6</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.7</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1.8</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1.9</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2.1</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2.2000000000000002</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2.2999999999999998</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2.4</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2.5</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2.6</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2.7</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2.8</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2.9</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3.1</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3.2</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3.3</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3.4</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3.5</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3.6</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3.7</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3.8</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>3.9</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>4.0999999999999996</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>4.2</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>4.3</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>4.4000000000000004</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>4.5</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>4.5999999999999996</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>4.7</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>4.8</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>4.9000000000000004</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>5</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>5.0999999999999996</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>5.2</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>5.3</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>5.4</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>5.5</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>5.6</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>5.7</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>5.8</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>5.9</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>6</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>6.1</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>6.2</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>6.3</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>6.4</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>6.5</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>6.6</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>6.7</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>6.8</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>6.9</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>7</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>7.1</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>7.2</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>7.3</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>7.4</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>7.5</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>7.6</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>7.7</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>7.8</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>7.9</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>8</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>8.1</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>8.1999999999999993</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>8.3000000000000007</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>8.4</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>8.5</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>8.6</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>8.6999999999999993</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>8.8000000000000007</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>8.9</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>9</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>9.1</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>9.1999999999999993</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>9.3000000000000007</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>9.4</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>9.5</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>9.6</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>9.6999999999999993</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>9.8000000000000007</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>9.9</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>10</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>10.1</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>10.199999999999999</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>10.3</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>10.4</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>10.5</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>10.6</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>10.7</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>10.8</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>10.9</v>
       </c>
